--- a/src/main/java/com/nihaoyin/ptsservice/config/car.xlsx
+++ b/src/main/java/com/nihaoyin/ptsservice/config/car.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
   <si>
     <t>车辆id（车牌号）</t>
   </si>
@@ -52,124 +52,265 @@
     <t>PBYSC</t>
   </si>
   <si>
+    <t>赵成双</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>PBYSC-002</t>
   </si>
   <si>
+    <t>董国兴</t>
+  </si>
+  <si>
     <t>PBYSC-003</t>
   </si>
   <si>
+    <t>任嘉祥</t>
+  </si>
+  <si>
     <t>PBYSC-004</t>
   </si>
   <si>
+    <t>韩博明</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>PBYSC-005</t>
   </si>
   <si>
+    <t>石经亘</t>
+  </si>
+  <si>
     <t>PBYSC-006</t>
   </si>
   <si>
+    <t>薛振国</t>
+  </si>
+  <si>
     <t>PBYSC-007</t>
   </si>
   <si>
+    <t>易瀚海</t>
+  </si>
+  <si>
     <t>PBTC1-001</t>
   </si>
   <si>
     <t>PBTC1</t>
   </si>
   <si>
+    <t>段凯乐</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>PBTC1-002</t>
   </si>
   <si>
+    <t>高华翰</t>
+  </si>
+  <si>
     <t>PBTC1-003</t>
   </si>
   <si>
+    <t>龚飞跃</t>
+  </si>
+  <si>
     <t>PBTC1-004</t>
   </si>
   <si>
+    <t>乔志诚</t>
+  </si>
+  <si>
     <t>PBTC1-005</t>
   </si>
   <si>
+    <t>赵永嘉</t>
+  </si>
+  <si>
     <t>PBTC1-006</t>
   </si>
   <si>
+    <t>丁宏逸</t>
+  </si>
+  <si>
     <t>PBTC2-001</t>
   </si>
   <si>
     <t>PBTC2</t>
   </si>
   <si>
+    <t>阎涵忍</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>PBTC2-002</t>
   </si>
   <si>
+    <t>于宏深</t>
+  </si>
+  <si>
     <t>PBTC2-003</t>
   </si>
   <si>
+    <t>金泰河</t>
+  </si>
+  <si>
     <t>PBTC2-004</t>
   </si>
   <si>
+    <t>杜涵映</t>
+  </si>
+  <si>
     <t>PBTC2-005</t>
   </si>
   <si>
+    <t>姜经武</t>
+  </si>
+  <si>
     <t>CC-001</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
+    <t>叶欣德</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>CC-002</t>
   </si>
   <si>
+    <t>夏鹏鲲</t>
+  </si>
+  <si>
     <t>CC-003</t>
   </si>
   <si>
+    <t>沈敏智</t>
+  </si>
+  <si>
     <t>CC-004</t>
   </si>
   <si>
+    <t>史飞舟</t>
+  </si>
+  <si>
     <t>CC-005</t>
   </si>
   <si>
+    <t>方飞语</t>
+  </si>
+  <si>
     <t>CC-006</t>
   </si>
   <si>
+    <t>高朋义</t>
+  </si>
+  <si>
     <t>CC-007</t>
   </si>
   <si>
+    <t>万经亘</t>
+  </si>
+  <si>
     <t>CC-008</t>
   </si>
   <si>
+    <t>邹英悟</t>
+  </si>
+  <si>
     <t>CC-009</t>
   </si>
   <si>
+    <t>尹明知</t>
+  </si>
+  <si>
     <t>CC-010</t>
   </si>
   <si>
+    <t>傅承望</t>
+  </si>
+  <si>
     <t>CC-011</t>
   </si>
   <si>
+    <t>江璞瑜</t>
+  </si>
+  <si>
     <t>CC-012</t>
   </si>
   <si>
+    <t>戴同和</t>
+  </si>
+  <si>
     <t>CC-013</t>
   </si>
   <si>
+    <t>刘沛</t>
+  </si>
+  <si>
     <t>CC-014</t>
   </si>
   <si>
+    <t>许益</t>
+  </si>
+  <si>
     <t>CC-015</t>
   </si>
   <si>
+    <t>王颔</t>
+  </si>
+  <si>
     <t>CC-016</t>
   </si>
   <si>
+    <t>周铖</t>
+  </si>
+  <si>
     <t>CC-017</t>
   </si>
   <si>
+    <t>段绍</t>
+  </si>
+  <si>
     <t>CC-018</t>
   </si>
   <si>
+    <t>孙庆</t>
+  </si>
+  <si>
     <t>CC-019</t>
   </si>
   <si>
+    <t>徐德</t>
+  </si>
+  <si>
     <t>CC-020</t>
+  </si>
+  <si>
+    <t>方昊</t>
   </si>
   <si>
     <t>原点</t>
@@ -180,12 +321,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +336,73 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF111111"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,14 +413,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,11 +432,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,52 +455,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,25 +477,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -347,67 +494,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,115 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,11 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,16 +713,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +760,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,42 +785,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,139 +803,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,7 +1259,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1119,7 +1267,10 @@
     <col min="1" max="1" width="16.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="6" width="11.1296296296296" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1154,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,10 +1326,22 @@
         <f>D2-40821</f>
         <v>788884</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1197,10 +1360,22 @@
         <f t="shared" ref="F3:F39" si="1">D3-40821</f>
         <v>788884</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1219,10 +1394,22 @@
         <f t="shared" si="1"/>
         <v>466942</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1241,10 +1428,22 @@
         <f t="shared" si="1"/>
         <v>466942</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1263,10 +1462,22 @@
         <f t="shared" si="1"/>
         <v>528233</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1285,10 +1496,22 @@
         <f t="shared" si="1"/>
         <v>350447</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1307,13 +1530,25 @@
         <f t="shared" si="1"/>
         <v>208755</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>1402506</v>
@@ -1329,13 +1564,25 @@
         <f t="shared" si="1"/>
         <v>490145</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>1402506</v>
@@ -1351,13 +1598,25 @@
         <f t="shared" si="1"/>
         <v>482145</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>1402506</v>
@@ -1373,13 +1632,25 @@
         <f t="shared" si="1"/>
         <v>474145</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>1489789</v>
@@ -1395,13 +1666,25 @@
         <f t="shared" si="1"/>
         <v>359606</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>1489789</v>
@@ -1417,13 +1700,25 @@
         <f t="shared" si="1"/>
         <v>351606</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>1489789</v>
@@ -1439,13 +1734,25 @@
         <f t="shared" si="1"/>
         <v>343606</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
         <v>1160239</v>
@@ -1461,13 +1768,25 @@
         <f t="shared" si="1"/>
         <v>355827</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
         <v>1168239</v>
@@ -1483,13 +1802,25 @@
         <f t="shared" si="1"/>
         <v>355827</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
         <v>1220991</v>
@@ -1505,13 +1836,25 @@
         <f t="shared" si="1"/>
         <v>133610</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
         <v>1228991</v>
@@ -1527,13 +1870,25 @@
         <f t="shared" si="1"/>
         <v>133610</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>1236991</v>
@@ -1549,13 +1904,25 @@
         <f t="shared" si="1"/>
         <v>133610</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1">
         <v>1207325</v>
@@ -1571,13 +1938,25 @@
         <f t="shared" si="1"/>
         <v>353245</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1">
         <v>1210325</v>
@@ -1593,13 +1972,25 @@
         <f t="shared" si="1"/>
         <v>353245</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>1213325</v>
@@ -1615,13 +2006,25 @@
         <f t="shared" si="1"/>
         <v>353245</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1">
         <v>1216325</v>
@@ -1637,13 +2040,25 @@
         <f t="shared" si="1"/>
         <v>353245</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1">
         <v>1219325</v>
@@ -1659,13 +2074,25 @@
         <f t="shared" si="1"/>
         <v>353245</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1">
         <v>1276319</v>
@@ -1681,13 +2108,25 @@
         <f t="shared" si="1"/>
         <v>469555</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1">
         <v>1279319</v>
@@ -1703,13 +2142,25 @@
         <f t="shared" si="1"/>
         <v>469555</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1">
         <v>1282319</v>
@@ -1725,13 +2176,25 @@
         <f t="shared" si="1"/>
         <v>469555</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1">
         <v>1285319</v>
@@ -1747,13 +2210,25 @@
         <f t="shared" si="1"/>
         <v>469555</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>1288319</v>
@@ -1769,13 +2244,25 @@
         <f t="shared" si="1"/>
         <v>469555</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1">
         <v>1492289</v>
@@ -1791,13 +2278,25 @@
         <f t="shared" si="1"/>
         <v>389580</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1">
         <v>1492289</v>
@@ -1813,13 +2312,25 @@
         <f t="shared" si="1"/>
         <v>386580</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1">
         <v>1492289</v>
@@ -1835,13 +2346,25 @@
         <f t="shared" si="1"/>
         <v>383580</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1">
         <v>1492289</v>
@@ -1857,13 +2380,25 @@
         <f t="shared" si="1"/>
         <v>380580</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1">
         <v>1492289</v>
@@ -1879,13 +2414,25 @@
         <f t="shared" si="1"/>
         <v>377580</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1">
         <v>1224470</v>
@@ -1901,13 +2448,25 @@
         <f t="shared" si="1"/>
         <v>168150</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1">
         <v>1227470</v>
@@ -1923,13 +2482,25 @@
         <f t="shared" si="1"/>
         <v>168150</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1">
         <v>1230470</v>
@@ -1945,13 +2516,25 @@
         <f t="shared" si="1"/>
         <v>168150</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1">
         <v>1233470</v>
@@ -1967,13 +2550,25 @@
         <f t="shared" si="1"/>
         <v>168150</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1">
         <v>1236470</v>
@@ -1989,10 +2584,22 @@
         <f t="shared" si="1"/>
         <v>168150</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1">
         <v>354773</v>
